--- a/design.xlsx
+++ b/design.xlsx
@@ -580,6 +580,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,36 +624,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2647,6 +2647,249 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>632791</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>34787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>422412</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="圆角矩形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5635487" y="7729330"/>
+          <a:ext cx="1851990" cy="1124779"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>后端：游戏</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，位置信息；前台：接收位置信息，记录路径信息，返回信息和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>；后端：验证</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>token+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>用户</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，验证路径合理性</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1772479</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>40586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>632791</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>75372</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="肘形连接符 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2592457" y="7213325"/>
+          <a:ext cx="3043030" cy="1078395"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 89194"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1683027</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>75372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>632791</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>20707</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="肘形连接符 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2503005" y="8291720"/>
+          <a:ext cx="3132482" cy="988944"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 89662"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3027,8 +3270,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3039,35 +3282,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="36" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="33" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="39"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3090,7 +3333,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3111,7 +3354,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
@@ -3132,7 +3375,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="7" t="s">
         <v>43</v>
       </c>
@@ -3153,7 +3396,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -3176,7 +3419,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="34"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -3197,7 +3440,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
@@ -3218,7 +3461,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="43" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -3244,7 +3487,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="34"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
@@ -3265,7 +3508,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
@@ -3286,7 +3529,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="43" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -3309,7 +3552,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="34"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
@@ -3330,7 +3573,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
@@ -3351,7 +3594,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
@@ -3372,7 +3615,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="34"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
@@ -3393,7 +3636,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="34"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
@@ -3414,7 +3657,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="34"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
@@ -3435,7 +3678,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="7" t="s">
         <v>30</v>
       </c>
@@ -3457,16 +3700,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design.xlsx
+++ b/design.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="67">
   <si>
     <t>dapp后端：存储数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,70 @@
   </si>
   <si>
     <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏&amp;保存结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、技术对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、流程图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.用户验证模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名+用户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.位置+sessionId+游戏token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.前端游戏数据保存模块（传到后端）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.后端游戏数据验证模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.位置+sessionid+游戏token+分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.后端提现验证模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.sessionid+分数+提现金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.表：用户名+分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +347,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -494,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -580,6 +650,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,21 +695,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -645,13 +717,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>753718</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>49696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1631674</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>124240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -712,13 +784,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1192696</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>124240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1194352</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -762,13 +834,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>737152</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1651552</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>24583</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -837,13 +909,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1196009</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>36444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1197665</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>19878</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -884,7 +956,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>869675</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>66261</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="275717"/>
@@ -936,13 +1008,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>798444</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>53009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1676400</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>49696</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1003,13 +1075,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1215887</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>89453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1217543</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>72887</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1050,13 +1122,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>687457</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>81170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1772479</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1133,13 +1205,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1229968</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1237421</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>84484</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1182,13 +1254,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>106016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>24847</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1257,13 +1329,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1220855</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>57979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1222511</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>41413</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1304,7 +1376,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>881683</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>168137</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="317447" cy="275717"/>
@@ -1356,13 +1428,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>805071</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>109331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1683027</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>106018</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1423,13 +1495,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1224168</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>135835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1225824</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>119269</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1470,13 +1542,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>815424</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>134593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1693380</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>131280</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1537,13 +1609,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1245703</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>104360</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1584,13 +1656,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>853524</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>67918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1731480</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>64605</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1651,13 +1723,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>798444</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>137078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1292502</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>64605</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1704,13 +1776,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>132936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1790,13 +1862,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1244046</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>168551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1245702</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>151985</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1837,13 +1909,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1651552</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>66129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>163996</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114715</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1887,13 +1959,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>631135</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>20707</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>33545</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1954,13 +2026,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>154471</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>53009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>137493</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2001,13 +2073,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>10766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>101047</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2128,13 +2200,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>81171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1229968</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>151158</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2181,7 +2253,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1280078</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>72887</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="275717"/>
@@ -2233,7 +2305,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>260903</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>72887</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="275717"/>
@@ -2285,13 +2357,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>81171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1229967</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>133144</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2338,7 +2410,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>251378</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>44312</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="275717"/>
@@ -2390,13 +2462,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1237422</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>53009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>55907</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2443,7 +2515,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>460928</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>53837</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="275717"/>
@@ -2495,13 +2567,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>74131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>631134</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>55908</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2547,7 +2619,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>260903</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>101462</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="275717"/>
@@ -2599,7 +2671,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>232328</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>110987</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="275717"/>
@@ -2649,16 +2721,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>632791</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>34787</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>326335</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>117612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>422412</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>115957</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>480390</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2667,7 +2739,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5635487" y="7729330"/>
+          <a:off x="2943639" y="10073308"/>
           <a:ext cx="1851990" cy="1124779"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2782,32 +2854,30 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1772479</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>40586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>632791</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>75372</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>241851</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>117612</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="10" name="肘形连接符 9"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="3"/>
-          <a:endCxn id="38" idx="1"/>
+          <a:endCxn id="38" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2592457" y="7213325"/>
-          <a:ext cx="3043030" cy="1078395"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 89194"/>
-          </a:avLst>
+          <a:ext cx="1277177" cy="2859983"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
@@ -2838,32 +2908,30 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1683027</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>75372</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>20707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>632791</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>20707</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>241851</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>117612</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="39" name="肘形连接符 38"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="23" idx="3"/>
-          <a:endCxn id="38" idx="1"/>
+          <a:endCxn id="38" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2503005" y="8291720"/>
-          <a:ext cx="3132482" cy="988944"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 89662"/>
-          </a:avLst>
+        <a:xfrm>
+          <a:off x="2503005" y="9280664"/>
+          <a:ext cx="1366629" cy="792644"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
@@ -2888,6 +2956,547 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>496956</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>496956</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接连接符 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5499652" y="4207565"/>
+          <a:ext cx="0" cy="8572500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>24849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>347870</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="圆角矩形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7230717" y="4414632"/>
+          <a:ext cx="869675" cy="505238"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>发起提现请求</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>612913</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>614569</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直接箭头连接符 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677978" y="4944718"/>
+          <a:ext cx="1656" cy="356152"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>425726</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>109329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215347</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="圆角矩形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6803335" y="5194851"/>
+          <a:ext cx="1851990" cy="810040"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>后端：验证用户</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>token+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>验证分数有效性</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>665921</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>61291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>667577</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>44726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直接箭头连接符 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7730986" y="6016487"/>
+          <a:ext cx="1656" cy="331304"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215347</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>442290</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>165387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="流程图: 决策 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7280412" y="6377609"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>有效？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>677517</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>14909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>679173</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>172278</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直接箭头连接符 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7742582" y="7013713"/>
+          <a:ext cx="1656" cy="331304"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>298175</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="TextBox 66"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7363240" y="7048500"/>
+          <a:ext cx="325730" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>256761</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447260</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="圆角矩形 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7321826" y="7388087"/>
+          <a:ext cx="877956" cy="518491"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>调用钱包，发起区块链交易</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3268,10 +3877,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:I21"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3281,435 +3890,519 @@
     <col min="3" max="3" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E3" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G3" s="38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="39"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="44"/>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="34"/>
+      <c r="B6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="34"/>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="7" t="s">
+      <c r="G7" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G8" s="30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="43" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G9" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="44"/>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="34"/>
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G10" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="9" t="s">
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35"/>
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F11" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="43" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F12" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I12" s="32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
-      <c r="B12" s="3" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="34"/>
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="7" t="s">
+    <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G14" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="43" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D15" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F15" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G15" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="44"/>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="34"/>
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E16" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G16" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="44"/>
-      <c r="B16" s="3" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="34"/>
+      <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F17" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="34"/>
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="44"/>
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="34"/>
+      <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F19" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="44"/>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="34"/>
+      <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F20" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="44"/>
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="34"/>
+      <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F21" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="7" t="s">
+    <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="35"/>
+      <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D22" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F22" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="G25" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="48"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design.xlsx
+++ b/design.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="问题描述" sheetId="2" r:id="rId1"/>
     <sheet name="表格对比" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
   <si>
     <t>dapp后端：存储数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +282,29 @@
   </si>
   <si>
     <t>3.2.表：用户名+分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registration</t>
+  </si>
+  <si>
+    <t>||</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3879,8 +3903,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4409,4 +4433,54 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/design.xlsx
+++ b/design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题描述" sheetId="2" r:id="rId1"/>
@@ -225,86 +225,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>一、技术对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、流程图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.用户验证模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名+用户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.位置+sessionId+游戏token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.前端游戏数据保存模块（传到后端）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.后端游戏数据验证模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.位置+sessionid+游戏token+分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.后端提现验证模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.sessionid+分数+提现金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.表：用户名+分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>||</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一、技术对比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二、流程图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三、功能模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.用户验证模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.session</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名+用户密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.位置+sessionId+游戏token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.前端游戏数据保存模块（传到后端）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.后端游戏数据验证模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.位置+sessionid+游戏token+分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.后端提现验证模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.sessionid+分数+提现金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.表：用户名+分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>registration</t>
-  </si>
-  <si>
-    <t>||</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,21 +675,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -719,8 +707,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3903,8 +3904,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3916,39 +3917,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="36" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="35" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="39"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -3971,7 +3972,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -3992,7 +3993,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
@@ -4013,7 +4014,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
@@ -4034,7 +4035,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="45" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4057,7 +4058,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="34"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4078,7 +4079,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
@@ -4099,7 +4100,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="45" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4125,7 +4126,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
@@ -4146,7 +4147,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
@@ -4167,7 +4168,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="45" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4190,7 +4191,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4211,7 +4212,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
@@ -4232,7 +4233,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="34"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
@@ -4253,7 +4254,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="34"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
@@ -4274,7 +4275,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="34"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
@@ -4295,7 +4296,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="34"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
@@ -4316,7 +4317,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
@@ -4338,95 +4339,95 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="G25" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="48"/>
+      <c r="B25" s="33"/>
+      <c r="G25" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="33"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4439,8 +4440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4450,32 +4451,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/design.xlsx
+++ b/design.xlsx
@@ -677,6 +677,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,21 +721,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3904,8 +3904,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3921,35 +3921,35 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="48" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="40" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="36"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -3972,7 +3972,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="46"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -3993,7 +3993,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="46"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
@@ -4014,7 +4014,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
@@ -4035,7 +4035,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4058,7 +4058,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="46"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4079,7 +4079,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
@@ -4100,7 +4100,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4126,7 +4126,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="46"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
@@ -4147,7 +4147,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
@@ -4168,7 +4168,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="35" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4191,7 +4191,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="46"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4212,7 +4212,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="46"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
@@ -4233,7 +4233,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="46"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
@@ -4254,7 +4254,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="46"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
@@ -4275,7 +4275,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="46"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
@@ -4296,7 +4296,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="46"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
@@ -4317,7 +4317,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
@@ -4418,16 +4418,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A3:B4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design.xlsx
+++ b/design.xlsx
@@ -677,21 +677,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,6 +706,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3902,10 +3902,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3921,35 +3921,35 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="38" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="35" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="41"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -3972,7 +3972,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -3993,7 +3993,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
@@ -4014,7 +4014,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
@@ -4035,7 +4035,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="45" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4058,7 +4058,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="36"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4079,7 +4079,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
@@ -4100,7 +4100,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="45" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4126,7 +4126,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="36"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
@@ -4147,7 +4147,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
@@ -4168,7 +4168,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="45" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4191,7 +4191,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="36"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4212,7 +4212,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="36"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
@@ -4233,7 +4233,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="36"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
@@ -4254,7 +4254,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="36"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
@@ -4275,7 +4275,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="36"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
@@ -4296,7 +4296,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="36"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
@@ -4317,7 +4317,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
@@ -4381,53 +4381,53 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design.xlsx
+++ b/design.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="74">
   <si>
     <t>dapp后端：存储数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,10 @@
   </si>
   <si>
     <t>提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(x-Rx)^2+(y-Ry)^2&lt;R^2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,6 +681,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,21 +725,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3902,10 +3906,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3921,35 +3925,35 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="48" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="40" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="36"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -3972,7 +3976,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="46"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -3993,7 +3997,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="46"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
@@ -4014,7 +4018,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
@@ -4035,7 +4039,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4058,7 +4062,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="46"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4079,7 +4083,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
@@ -4100,7 +4104,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4126,7 +4130,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="46"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
@@ -4147,7 +4151,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
@@ -4168,7 +4172,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="35" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4191,7 +4195,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="46"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4212,7 +4216,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="46"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
@@ -4233,7 +4237,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="46"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
@@ -4254,7 +4258,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="46"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
@@ -4275,7 +4279,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="46"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
@@ -4296,7 +4300,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="46"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
@@ -4317,7 +4321,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
@@ -4408,26 +4412,31 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A3:B4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design.xlsx
+++ b/design.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="问题描述" sheetId="2" r:id="rId1"/>
     <sheet name="表格对比" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="时间轴" sheetId="5" r:id="rId3"/>
+    <sheet name="遗留" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="84">
   <si>
     <t>dapp后端：存储数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,36 +282,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>||</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>registration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(x-Rx)^2+(y-Ry)^2&lt;R^2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>(x-Rx)^2+(y-Ry)^2&lt;R^2+50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.1. 空间维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.2. 时间维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.2.1.目标持续：1.2s</t>
+  </si>
+  <si>
+    <t>3.2.2.1.目标持续：1.2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.2.2.目标周期：0.7s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.2.3.结束延迟：0.55s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.2.2.目标周期：0.7s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.2.3.结束延迟：0.55s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0              1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7             1.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4              2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7*i&lt;t&lt;0.7*i+1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2*2-0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2*3-0.5*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2*n-0.5*(n-1)+0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionDispatch::Cookies::CookieOverflow</t>
   </si>
 </sst>
 </file>
@@ -593,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -681,21 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,6 +749,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3526,6 +3568,146 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直接连接符 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="704850"/>
+          <a:ext cx="1390650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="866775"/>
+          <a:ext cx="1390650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="1209675"/>
+          <a:ext cx="1390650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3906,10 +4088,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView showGridLines="0" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3925,35 +4107,35 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="38" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="35" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="41"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -3976,7 +4158,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -3997,7 +4179,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
@@ -4018,7 +4200,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
@@ -4039,7 +4221,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="45" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4062,7 +4244,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="36"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4083,7 +4265,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
@@ -4104,7 +4286,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="45" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4130,7 +4312,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="36"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
@@ -4151,7 +4333,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
@@ -4172,7 +4354,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="45" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4195,7 +4377,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="36"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4216,7 +4398,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="36"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
@@ -4237,7 +4419,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="36"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
@@ -4258,7 +4440,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="36"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
@@ -4279,7 +4461,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="36"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
@@ -4300,7 +4482,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="36"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
@@ -4321,7 +4503,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
@@ -4352,7 +4534,7 @@
       </c>
       <c r="B25" s="33"/>
       <c r="G25" s="33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H25" s="33"/>
     </row>
@@ -4410,33 +4592,63 @@
         <v>65</v>
       </c>
     </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4447,50 +4659,101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" s="50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <f>1.2*3-0.5*2</f>
+        <v>2.5999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <f>12-4.5</f>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/design.xlsx
+++ b/design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题描述" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="85">
   <si>
     <t>dapp后端：存储数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.后端提现验证模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.1.sessionid+分数+提现金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,6 +346,14 @@
   </si>
   <si>
     <t>ActionDispatch::Cookies::CookieOverflow</t>
+  </si>
+  <si>
+    <t>4.后端提现验证模块(安装钱包&amp;&amp;数据库分数==链上分数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.同步数据（安装钱包&amp;&amp;数据库分数&gt;链上分数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -720,6 +724,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -749,24 +771,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4088,10 +4092,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4107,35 +4111,35 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="48" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="41" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="36"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -4158,7 +4162,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="46"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -4179,7 +4183,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="46"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
@@ -4200,7 +4204,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
@@ -4221,7 +4225,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="36" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4244,7 +4248,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="46"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4265,7 +4269,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
@@ -4286,7 +4290,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4312,7 +4316,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="46"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
@@ -4333,7 +4337,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
@@ -4354,7 +4358,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="36" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4377,7 +4381,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="46"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4398,7 +4402,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="46"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
@@ -4419,7 +4423,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="46"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
@@ -4440,7 +4444,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="46"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
@@ -4461,7 +4465,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="46"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
@@ -4482,7 +4486,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="46"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
@@ -4503,7 +4507,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
@@ -4534,7 +4538,7 @@
       </c>
       <c r="B25" s="33"/>
       <c r="G25" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="33"/>
     </row>
@@ -4589,66 +4593,71 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>64</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A3:B4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4662,39 +4671,39 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="50" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="35" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B6" s="50" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" s="35" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C7" s="50" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -4704,12 +4713,12 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -4720,7 +4729,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
@@ -4741,15 +4750,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/design.xlsx
+++ b/design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="问题描述" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="86">
   <si>
     <t>dapp后端：存储数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,14 +345,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ActionDispatch::Cookies::CookieOverflow</t>
-  </si>
-  <si>
     <t>4.后端提现验证模块(安装钱包&amp;&amp;数据库分数==链上分数)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.同步数据（安装钱包&amp;&amp;数据库分数&gt;链上分数)</t>
+    <t>5.同步链上数据（安装钱包&amp;&amp;数据库分数&gt;链上分数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.ActionDispatch::Cookies::CookieOverflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.取消交易</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,21 +732,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,6 +761,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4094,8 +4099,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView showGridLines="0" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4111,35 +4116,35 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="39" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="42"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -4162,7 +4167,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="37"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -4183,7 +4188,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="37"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
@@ -4204,7 +4209,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
@@ -4225,7 +4230,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4248,7 +4253,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="37"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4269,7 +4274,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
@@ -4290,7 +4295,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4316,7 +4321,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="37"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
@@ -4337,7 +4342,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
@@ -4358,7 +4363,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="46" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4381,7 +4386,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="37"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4402,7 +4407,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="37"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
@@ -4423,7 +4428,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="37"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
@@ -4444,7 +4449,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="37"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
@@ -4465,7 +4470,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="37"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
@@ -4486,7 +4491,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="37"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
@@ -4507,7 +4512,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
@@ -4633,7 +4638,7 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
@@ -4643,21 +4648,21 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4748,17 +4753,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/design.xlsx
+++ b/design.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
   <si>
     <t>dapp后端：存储数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +358,10 @@
   </si>
   <si>
     <t>2.取消交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.后端数据库保存score？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,6 +736,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -761,21 +780,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4099,8 +4103,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView showGridLines="0" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4116,35 +4120,35 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="49" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="41" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="37"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -4167,7 +4171,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="47"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -4188,7 +4192,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="47"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
@@ -4209,7 +4213,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
@@ -4230,7 +4234,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="36" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4253,7 +4257,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="47"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4274,7 +4278,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
@@ -4295,7 +4299,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4321,7 +4325,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="47"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
@@ -4342,7 +4346,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
@@ -4363,7 +4367,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="36" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4386,7 +4390,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="47"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4407,7 +4411,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="47"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
@@ -4428,7 +4432,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="47"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
@@ -4449,7 +4453,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="47"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
@@ -4470,7 +4474,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="47"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
@@ -4491,7 +4495,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="47"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
@@ -4512,7 +4516,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
@@ -4653,16 +4657,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A3:B4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4676,7 +4680,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4753,22 +4757,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <f>39*60</f>
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <f>81*30</f>
+        <v>2430</v>
       </c>
     </row>
   </sheetData>

--- a/design.xlsx
+++ b/design.xlsx
@@ -4104,7 +4104,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4760,7 +4760,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4775,8 +4775,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
         <v>86</v>
       </c>
     </row>

--- a/design.xlsx
+++ b/design.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="88">
   <si>
     <t>dapp后端：存储数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,6 +362,10 @@
   </si>
   <si>
     <t>3.后端数据库保存score？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.nginx?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,21 +740,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,6 +769,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4120,35 +4124,35 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="39" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="42"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -4171,7 +4175,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="37"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -4192,7 +4196,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="37"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
@@ -4213,7 +4217,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
@@ -4234,7 +4238,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4257,7 +4261,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="37"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4278,7 +4282,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
@@ -4299,7 +4303,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4325,7 +4329,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="37"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
@@ -4346,7 +4350,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
@@ -4367,7 +4371,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="46" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4390,7 +4394,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="37"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4411,7 +4415,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="37"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
@@ -4432,7 +4436,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="37"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
@@ -4453,7 +4457,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="37"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
@@ -4474,7 +4478,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="37"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
@@ -4495,7 +4499,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="37"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
@@ -4516,7 +4520,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
@@ -4657,16 +4661,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4760,7 +4764,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4780,6 +4784,11 @@
         <v>86</v>
       </c>
     </row>
+    <row r="4" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5">
         <f>39*60</f>
